--- a/Company examples & locations.xlsx
+++ b/Company examples & locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vwattin/Documents/Programming/Climate/Finance/202312_TCFD_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E7F40B-76EC-B74C-BA8F-5E67B830C3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D163DE-2264-B546-9D84-C576EEFA814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property values" sheetId="1" r:id="rId1"/>
@@ -334,13 +334,13 @@
     <t>es_rel_gross</t>
   </si>
   <si>
+    <t>FRED</t>
+  </si>
+  <si>
+    <t>Globe Pharma</t>
+  </si>
+  <si>
     <t>NWP SEMICON</t>
-  </si>
-  <si>
-    <t>FRED</t>
-  </si>
-  <si>
-    <t>Globe Pharma</t>
   </si>
 </sst>
 </file>
@@ -522,9 +522,9 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,7 +785,7 @@
   <dimension ref="A1:O1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -831,8 +831,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>101</v>
+      <c r="A2" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -866,8 +866,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>101</v>
+      <c r="A3" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -904,8 +904,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>101</v>
+      <c r="A4" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -939,8 +939,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>101</v>
+      <c r="A5" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -977,8 +977,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>101</v>
+      <c r="A6" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -1012,8 +1012,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>101</v>
+      <c r="A7" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -1050,8 +1050,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>101</v>
+      <c r="A8" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -1085,8 +1085,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>101</v>
+      <c r="A9" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -1120,8 +1120,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>101</v>
+      <c r="A10" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -1155,8 +1155,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>101</v>
+      <c r="A11" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -1190,8 +1190,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>99</v>
+      <c r="A12" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>41</v>
@@ -1225,8 +1225,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>99</v>
+      <c r="A13" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>41</v>
@@ -1260,8 +1260,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>99</v>
+      <c r="A14" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>41</v>
@@ -1295,8 +1295,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>99</v>
+      <c r="A15" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>41</v>
@@ -1330,8 +1330,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>99</v>
+      <c r="A16" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>41</v>
@@ -1365,8 +1365,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>99</v>
+      <c r="A17" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>41</v>
@@ -1400,8 +1400,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>99</v>
+      <c r="A18" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>41</v>
@@ -1435,8 +1435,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>99</v>
+      <c r="A19" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>41</v>
@@ -1470,8 +1470,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>99</v>
+      <c r="A20" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>41</v>
@@ -1505,8 +1505,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>99</v>
+      <c r="A21" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>41</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>55</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>55</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>55</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>55</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>55</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>55</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>55</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>55</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>55</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>55</v>
@@ -4826,7 +4826,9 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5020,22 +5022,22 @@
     <row r="5" spans="2:12" ht="15.75" customHeight="1">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="2:12" ht="15">
+      <c r="B6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" ht="15">
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
         <v>70</v>
@@ -5058,7 +5060,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" ht="15">
       <c r="B8" s="13">
         <v>0</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>0.94530000000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" ht="15">
       <c r="B9" s="17">
         <v>1</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>4.7199999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" ht="15">
       <c r="B10" s="17">
         <v>2</v>
       </c>
@@ -5139,7 +5141,7 @@
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" ht="15">
       <c r="B11" s="17">
         <v>3</v>
       </c>
@@ -5193,7 +5195,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="1" t="s">
         <v>70</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="1" t="s">
         <v>71</v>
       </c>
@@ -5251,7 +5253,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
@@ -5280,12 +5282,12 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" ht="15">
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
         <v>41</v>
@@ -5297,7 +5299,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="13" t="s">
         <v>41</v>
       </c>
@@ -5311,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="14" t="s">
         <v>11</v>
       </c>
@@ -5325,7 +5327,7 @@
         <v>0.1132</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="14" t="s">
         <v>85</v>
       </c>
@@ -5359,7 +5361,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
@@ -5381,7 +5383,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="1" t="s">
         <v>72</v>
       </c>
@@ -5403,7 +5405,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="1" t="s">
         <v>70</v>
       </c>
@@ -5425,15 +5427,15 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" ht="15">
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" ht="15">
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" ht="15">
       <c r="B33" s="12" t="s">
         <v>96</v>
       </c>
@@ -5444,7 +5446,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" ht="15">
       <c r="B34" s="1" t="s">
         <v>97</v>
       </c>
@@ -5465,7 +5467,7 @@
       </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" ht="15">
       <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
@@ -5486,7 +5488,7 @@
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" ht="15">
       <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
@@ -5507,7 +5509,7 @@
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" ht="15">
       <c r="B37" s="1" t="s">
         <v>70</v>
       </c>
@@ -5528,7 +5530,7 @@
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" ht="15">
       <c r="B40" s="12" t="s">
         <v>98</v>
       </c>
@@ -5539,7 +5541,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" ht="15">
       <c r="B41" s="1" t="s">
         <v>97</v>
       </c>
@@ -5560,7 +5562,7 @@
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" ht="15">
       <c r="B42" s="1" t="s">
         <v>71</v>
       </c>
@@ -5581,7 +5583,7 @@
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" ht="15">
       <c r="B43" s="1" t="s">
         <v>72</v>
       </c>
@@ -5602,7 +5604,7 @@
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" ht="15">
       <c r="B44" s="1" t="s">
         <v>70</v>
       </c>
@@ -5643,7 +5645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" ht="15">
       <c r="B48" s="1" t="s">
         <v>71</v>
       </c>
@@ -5663,7 +5665,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" ht="15">
       <c r="B49" s="1" t="s">
         <v>72</v>
       </c>
@@ -5683,7 +5685,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" ht="15">
       <c r="B50" s="1" t="s">
         <v>70</v>
       </c>
